--- a/posesiones/1486020.xlsx
+++ b/posesiones/1486020.xlsx
@@ -1799,10 +1799,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1993,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>23</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>19</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2243,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>20</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>20</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2493,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>33</v>
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>11</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>18</v>
@@ -2699,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>20</v>
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R24">
         <v>2</v>
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R25">
         <v>23</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R29">
         <v>16</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3208,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R31">
         <v>15</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3308,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R33">
         <v>18</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R35">
         <v>26</v>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3508,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R37">
         <v>18</v>
@@ -3561,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R38">
         <v>13</v>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R44">
         <v>22</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3999,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R47">
         <v>21</v>
@@ -4052,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R48">
         <v>12</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R50">
         <v>9</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R52">
         <v>24</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4405,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R55">
         <v>15</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4505,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R57">
         <v>14</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R59">
         <v>16</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R61">
         <v>5</v>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R63">
         <v>25</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4908,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R65">
         <v>22</v>
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R79">
         <v>37</v>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5681,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R81">
         <v>13</v>
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R82">
         <v>17</v>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R88">
         <v>32</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R96">
         <v>17</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6510,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R98">
         <v>4</v>
@@ -6554,10 +6554,10 @@
         <v>1</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6692,10 +6692,10 @@
         <v>1</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6745,7 +6745,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R103">
         <v>17</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6845,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R105">
         <v>22</v>
@@ -6898,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7277,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R114">
         <v>5</v>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7380,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R116">
         <v>15</v>
@@ -7433,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R117">
         <v>13</v>
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7533,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R119">
         <v>5</v>
@@ -7586,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R120">
         <v>14</v>
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7686,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R122">
         <v>14</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7836,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R125">
         <v>23</v>
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8168,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R132">
         <v>14</v>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8271,7 +8271,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R134">
         <v>16</v>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8465,7 +8465,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R138">
         <v>18</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8565,7 +8565,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R140">
         <v>16</v>
@@ -8618,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8668,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R142">
         <v>9</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8771,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R144">
         <v>15</v>
@@ -8824,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9062,7 +9062,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R150">
         <v>22</v>
@@ -9115,7 +9115,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R151">
         <v>21</v>
@@ -9165,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9259,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R154">
         <v>11</v>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9359,7 +9359,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R156">
         <v>14</v>
@@ -9412,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R157">
         <v>15</v>
@@ -9465,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9515,7 +9515,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R159">
         <v>21</v>
@@ -9568,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R163">
         <v>14</v>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9818,7 +9818,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R165">
         <v>19</v>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10012,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R169">
         <v>11</v>
@@ -10059,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10294,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10341,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10388,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10482,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10529,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10676,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R183">
         <v>16</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10826,7 +10826,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R186">
         <v>5</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10929,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R188">
         <v>11</v>
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11029,7 +11029,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R190">
         <v>5</v>
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11179,7 +11179,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11276,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11326,7 +11326,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R196">
         <v>29</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11476,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11570,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11664,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11711,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11758,7 +11758,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11855,7 +11855,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R207">
         <v>14</v>
@@ -11908,7 +11908,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R208">
         <v>12</v>
@@ -11961,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12011,7 +12011,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R210">
         <v>18</v>
@@ -12058,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12108,7 +12108,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R212">
         <v>12</v>
@@ -12158,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12349,7 +12349,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R217">
         <v>4</v>
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R218">
         <v>11</v>
@@ -12455,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12505,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R220">
         <v>14</v>
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12605,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R222">
         <v>10</v>
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12702,7 +12702,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12752,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R225">
         <v>12</v>
@@ -12802,7 +12802,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12896,7 +12896,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12946,7 +12946,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R229">
         <v>15</v>
@@ -12999,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R230">
         <v>19</v>
@@ -13052,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13102,7 +13102,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R232">
         <v>8</v>
@@ -13152,7 +13152,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13202,7 +13202,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R234">
         <v>15</v>
@@ -13252,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13293,10 +13293,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q236">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13437,7 +13437,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13484,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13525,10 +13525,10 @@
         <v>1</v>
       </c>
       <c r="P241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q241">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13578,7 +13578,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R242">
         <v>11</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13675,7 +13675,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13722,7 +13722,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13772,7 +13772,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R246">
         <v>15</v>
@@ -13822,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13872,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R248">
         <v>20</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13975,7 +13975,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R250">
         <v>14</v>
@@ -14025,7 +14025,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14072,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14119,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14166,7 +14166,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14216,7 +14216,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R255">
         <v>19</v>
@@ -14266,7 +14266,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14316,7 +14316,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14366,7 +14366,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R258">
         <v>22</v>
@@ -14419,7 +14419,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14469,7 +14469,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R260">
         <v>17</v>
@@ -14522,7 +14522,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R261">
         <v>21</v>
@@ -14572,7 +14572,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14619,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14669,7 +14669,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14719,7 +14719,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R265">
         <v>25</v>
@@ -14772,7 +14772,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14819,7 +14819,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14866,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14910,7 +14910,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14960,7 +14960,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R270">
         <v>21</v>
@@ -15013,7 +15013,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R271">
         <v>25</v>
@@ -15066,7 +15066,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R272">
         <v>24</v>
@@ -15116,7 +15116,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15163,7 +15163,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15210,7 +15210,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15257,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R277">
         <v>18</v>
@@ -15357,7 +15357,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15407,7 +15407,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15457,7 +15457,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R280">
         <v>25</v>
@@ -15510,7 +15510,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R281">
         <v>17</v>
@@ -15563,7 +15563,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15613,7 +15613,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R283">
         <v>16</v>
@@ -15660,7 +15660,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15707,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15754,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15804,7 +15804,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R287">
         <v>13</v>
@@ -15857,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15907,7 +15907,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R289">
         <v>18</v>
@@ -15957,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16007,7 +16007,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R291">
         <v>8</v>
@@ -16060,7 +16060,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R292">
         <v>22</v>
@@ -16110,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16160,7 +16160,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16210,7 +16210,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R295">
         <v>20</v>
@@ -16263,7 +16263,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R296">
         <v>12</v>
@@ -16313,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16410,7 +16410,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R299">
         <v>25</v>
@@ -16460,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16507,7 +16507,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16554,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16601,7 +16601,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16648,7 +16648,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16695,7 +16695,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16745,7 +16745,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R306">
         <v>19</v>
@@ -16798,7 +16798,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R307">
         <v>17</v>
@@ -16848,7 +16848,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16898,7 +16898,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R309">
         <v>5</v>
@@ -16951,7 +16951,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R310">
         <v>20</v>
@@ -17004,7 +17004,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17051,7 +17051,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17098,7 +17098,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17145,7 +17145,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17192,7 +17192,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17242,7 +17242,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R316">
         <v>7</v>
@@ -17295,7 +17295,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17345,7 +17345,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R318">
         <v>18</v>
@@ -17395,7 +17395,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17442,7 +17442,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17489,7 +17489,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17539,7 +17539,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R322">
         <v>0</v>
@@ -17592,7 +17592,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R323">
         <v>15</v>
@@ -17642,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17692,7 +17692,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R325">
         <v>21</v>
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17792,7 +17792,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17839,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18030,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18077,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18127,7 +18127,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R334">
         <v>33</v>
@@ -18180,7 +18180,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R335">
         <v>11</v>
@@ -18230,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18371,7 +18371,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18418,7 +18418,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18465,7 +18465,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18512,7 +18512,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18559,7 +18559,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18606,7 +18606,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18653,7 +18653,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18700,7 +18700,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18750,7 +18750,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R347">
         <v>4</v>
@@ -18803,7 +18803,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R348">
         <v>0</v>
@@ -18847,10 +18847,10 @@
         <v>1</v>
       </c>
       <c r="P349" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q349">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18891,10 +18891,10 @@
         <v>1</v>
       </c>
       <c r="P350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q350">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18944,7 +18944,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R351">
         <v>19</v>
@@ -18994,7 +18994,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19044,7 +19044,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R353">
         <v>16</v>
@@ -19097,7 +19097,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R354">
         <v>19</v>
@@ -19150,7 +19150,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19197,7 +19197,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19244,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19291,7 +19291,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19341,7 +19341,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R359">
         <v>5</v>
@@ -19394,7 +19394,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19444,7 +19444,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R361">
         <v>15</v>
@@ -19494,7 +19494,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R362">
         <v>26</v>
@@ -19547,7 +19547,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R363">
         <v>14</v>
@@ -19597,7 +19597,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19641,7 +19641,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19691,7 +19691,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R366">
         <v>25</v>
@@ -19741,7 +19741,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19791,7 +19791,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R368">
         <v>5</v>
@@ -19841,7 +19841,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19891,7 +19891,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R370">
         <v>12</v>
@@ -19941,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19988,7 +19988,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20035,7 +20035,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20082,7 +20082,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20129,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20176,7 +20176,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20223,7 +20223,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20270,7 +20270,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20320,7 +20320,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R379">
         <v>16</v>
@@ -20373,7 +20373,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R380">
         <v>16</v>
@@ -20423,7 +20423,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20473,7 +20473,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20523,7 +20523,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R383">
         <v>27</v>
@@ -20576,7 +20576,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20626,7 +20626,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R385">
         <v>19</v>
@@ -20676,7 +20676,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20726,7 +20726,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R387">
         <v>26</v>
@@ -20779,7 +20779,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20826,7 +20826,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20967,7 +20967,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21014,7 +21014,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21064,7 +21064,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R394">
         <v>14</v>
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21158,7 +21158,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21252,7 +21252,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21299,7 +21299,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21346,7 +21346,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21393,7 +21393,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21443,7 +21443,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R402">
         <v>29</v>
@@ -21496,7 +21496,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21546,7 +21546,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R404">
         <v>18</v>
@@ -21596,7 +21596,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21646,7 +21646,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21696,7 +21696,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R407">
         <v>23</v>
@@ -21746,7 +21746,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21793,7 +21793,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21843,7 +21843,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R410">
         <v>22</v>
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21940,7 +21940,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21987,7 +21987,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22037,7 +22037,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R414">
         <v>12</v>
@@ -22090,7 +22090,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R415">
         <v>20</v>
@@ -22143,7 +22143,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22190,7 +22190,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22243,7 +22243,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R418">
         <v>9</v>
@@ -22293,7 +22293,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22340,7 +22340,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22387,7 +22387,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22434,7 +22434,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22484,7 +22484,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R423">
         <v>18</v>
@@ -22531,7 +22531,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22578,7 +22578,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22625,7 +22625,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22672,7 +22672,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22722,7 +22722,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R428">
         <v>9</v>
@@ -22775,7 +22775,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22825,7 +22825,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R430">
         <v>14</v>
@@ -22878,7 +22878,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R431">
         <v>11</v>
@@ -22931,7 +22931,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R432">
         <v>17</v>
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23034,7 +23034,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R434">
         <v>13</v>
@@ -23081,7 +23081,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23128,7 +23128,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23175,7 +23175,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23222,7 +23222,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23319,7 +23319,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R440">
         <v>15</v>
@@ -23369,7 +23369,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23419,7 +23419,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R442">
         <v>8</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23519,7 +23519,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R444">
         <v>16</v>
@@ -23572,7 +23572,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R445">
         <v>10</v>
@@ -23625,7 +23625,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23675,7 +23675,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R447">
         <v>20</v>
@@ -23728,7 +23728,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23778,7 +23778,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R449">
         <v>8</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23875,7 +23875,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23922,7 +23922,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23972,7 +23972,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R453">
         <v>8</v>
@@ -24025,7 +24025,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R454">
         <v>15</v>
@@ -24069,10 +24069,10 @@
         <v>1</v>
       </c>
       <c r="P455" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q455">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
